--- a/natmiOut/OldD0/LR-pairs_lrc2p/Angptl3-Itgb3.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Angptl3-Itgb3.xlsx
@@ -528,52 +528,52 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.21490866306444</v>
+        <v>2.3082</v>
       </c>
       <c r="H2">
-        <v>2.21490866306444</v>
+        <v>6.9246</v>
       </c>
       <c r="I2">
-        <v>0.668497257401048</v>
+        <v>0.6638288620319053</v>
       </c>
       <c r="J2">
-        <v>0.668497257401048</v>
+        <v>0.6638288620319053</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.12912233874293</v>
+        <v>7.214110666666667</v>
       </c>
       <c r="N2">
-        <v>6.12912233874293</v>
+        <v>21.642332</v>
       </c>
       <c r="O2">
-        <v>0.4304256699440325</v>
+        <v>0.4688823795981188</v>
       </c>
       <c r="P2">
-        <v>0.4304256699440325</v>
+        <v>0.4688823795981188</v>
       </c>
       <c r="Q2">
-        <v>13.5754461650635</v>
+        <v>16.6516102408</v>
       </c>
       <c r="R2">
-        <v>13.5754461650635</v>
+        <v>149.8644921672</v>
       </c>
       <c r="S2">
-        <v>0.2877383798725945</v>
+        <v>0.3112576564754311</v>
       </c>
       <c r="T2">
-        <v>0.2877383798725945</v>
+        <v>0.3112576564754311</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.21490866306444</v>
+        <v>2.3082</v>
       </c>
       <c r="H3">
-        <v>2.21490866306444</v>
+        <v>6.9246</v>
       </c>
       <c r="I3">
-        <v>0.668497257401048</v>
+        <v>0.6638288620319053</v>
       </c>
       <c r="J3">
-        <v>0.668497257401048</v>
+        <v>0.6638288620319053</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.0811189833722</v>
+        <v>7.110350666666666</v>
       </c>
       <c r="N3">
-        <v>7.0811189833722</v>
+        <v>21.331052</v>
       </c>
       <c r="O3">
-        <v>0.4972808852427805</v>
+        <v>0.4621384803214003</v>
       </c>
       <c r="P3">
-        <v>0.4972808852427805</v>
+        <v>0.4621384803214003</v>
       </c>
       <c r="Q3">
-        <v>15.68403178046115</v>
+        <v>16.4121114088</v>
       </c>
       <c r="R3">
-        <v>15.68403178046115</v>
+        <v>147.7090026792</v>
       </c>
       <c r="S3">
-        <v>0.3324309079427641</v>
+        <v>0.3067808614929092</v>
       </c>
       <c r="T3">
-        <v>0.3324309079427641</v>
+        <v>0.3067808614929092</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.21490866306444</v>
+        <v>2.3082</v>
       </c>
       <c r="H4">
-        <v>2.21490866306444</v>
+        <v>6.9246</v>
       </c>
       <c r="I4">
-        <v>0.668497257401048</v>
+        <v>0.6638288620319053</v>
       </c>
       <c r="J4">
-        <v>0.668497257401048</v>
+        <v>0.6638288620319053</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.02943527417126</v>
+        <v>1.061296333333333</v>
       </c>
       <c r="N4">
-        <v>1.02943527417126</v>
+        <v>3.183889</v>
       </c>
       <c r="O4">
-        <v>0.07229344481318696</v>
+        <v>0.06897914008048092</v>
       </c>
       <c r="P4">
-        <v>0.07229344481318696</v>
+        <v>0.06897914008048092</v>
       </c>
       <c r="Q4">
-        <v>2.280105106826041</v>
+        <v>2.449684196599999</v>
       </c>
       <c r="R4">
-        <v>2.280105106826041</v>
+        <v>22.0471577694</v>
       </c>
       <c r="S4">
-        <v>0.0483279695856895</v>
+        <v>0.04579034406356504</v>
       </c>
       <c r="T4">
-        <v>0.0483279695856895</v>
+        <v>0.04579034406356504</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.09835648281732</v>
+        <v>1.168901</v>
       </c>
       <c r="H5">
-        <v>1.09835648281732</v>
+        <v>3.506703</v>
       </c>
       <c r="I5">
-        <v>0.3315027425989519</v>
+        <v>0.3361711379680947</v>
       </c>
       <c r="J5">
-        <v>0.3315027425989519</v>
+        <v>0.3361711379680947</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.12912233874293</v>
+        <v>7.214110666666667</v>
       </c>
       <c r="N5">
-        <v>6.12912233874293</v>
+        <v>21.642332</v>
       </c>
       <c r="O5">
-        <v>0.4304256699440325</v>
+        <v>0.4688823795981188</v>
       </c>
       <c r="P5">
-        <v>0.4304256699440325</v>
+        <v>0.4688823795981188</v>
       </c>
       <c r="Q5">
-        <v>6.731961254738752</v>
+        <v>8.432581172377333</v>
       </c>
       <c r="R5">
-        <v>6.731961254738752</v>
+        <v>75.893230551396</v>
       </c>
       <c r="S5">
-        <v>0.142687290071438</v>
+        <v>0.1576247231226878</v>
       </c>
       <c r="T5">
-        <v>0.142687290071438</v>
+        <v>0.1576247231226877</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.09835648281732</v>
+        <v>1.168901</v>
       </c>
       <c r="H6">
-        <v>1.09835648281732</v>
+        <v>3.506703</v>
       </c>
       <c r="I6">
-        <v>0.3315027425989519</v>
+        <v>0.3361711379680947</v>
       </c>
       <c r="J6">
-        <v>0.3315027425989519</v>
+        <v>0.3361711379680947</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.0811189833722</v>
+        <v>7.110350666666666</v>
       </c>
       <c r="N6">
-        <v>7.0811189833722</v>
+        <v>21.331052</v>
       </c>
       <c r="O6">
-        <v>0.4972808852427805</v>
+        <v>0.4621384803214003</v>
       </c>
       <c r="P6">
-        <v>0.4972808852427805</v>
+        <v>0.4621384803214003</v>
       </c>
       <c r="Q6">
-        <v>7.777592940987646</v>
+        <v>8.311296004617333</v>
       </c>
       <c r="R6">
-        <v>7.777592940987646</v>
+        <v>74.80166404155599</v>
       </c>
       <c r="S6">
-        <v>0.1648499773000164</v>
+        <v>0.1553576188284911</v>
       </c>
       <c r="T6">
-        <v>0.1648499773000164</v>
+        <v>0.1553576188284911</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.09835648281732</v>
+        <v>1.168901</v>
       </c>
       <c r="H7">
-        <v>1.09835648281732</v>
+        <v>3.506703</v>
       </c>
       <c r="I7">
-        <v>0.3315027425989519</v>
+        <v>0.3361711379680947</v>
       </c>
       <c r="J7">
-        <v>0.3315027425989519</v>
+        <v>0.3361711379680947</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.02943527417126</v>
+        <v>1.061296333333333</v>
       </c>
       <c r="N7">
-        <v>1.02943527417126</v>
+        <v>3.183889</v>
       </c>
       <c r="O7">
-        <v>0.07229344481318696</v>
+        <v>0.06897914008048092</v>
       </c>
       <c r="P7">
-        <v>0.07229344481318696</v>
+        <v>0.06897914008048092</v>
       </c>
       <c r="Q7">
-        <v>1.130686907026829</v>
+        <v>1.240550345329666</v>
       </c>
       <c r="R7">
-        <v>1.130686907026829</v>
+        <v>11.164953107967</v>
       </c>
       <c r="S7">
-        <v>0.02396547522749745</v>
+        <v>0.02318879601691588</v>
       </c>
       <c r="T7">
-        <v>0.02396547522749745</v>
+        <v>0.02318879601691588</v>
       </c>
     </row>
   </sheetData>
